--- a/Module 2 Deliverables/CS633_Mod3_Term_Project_Group4_Section3_Estimation_Record.xlsx
+++ b/Module 2 Deliverables/CS633_Mod3_Term_Project_Group4_Section3_Estimation_Record.xlsx
@@ -164,7 +164,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,81 +339,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="18">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -414,6 +425,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -421,7 +433,9 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -859,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="T10" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -878,7 +892,7 @@
     <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" thickBot="1">
+    <row r="1" spans="1:11" ht="24" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -896,7 +910,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="43" thickBot="1">
+    <row r="2" spans="1:11" ht="43" thickBot="1">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
@@ -922,7 +936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29" thickBot="1">
+    <row r="3" spans="1:11" ht="29" thickBot="1">
       <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
@@ -952,9 +966,11 @@
         <f t="shared" ref="I3:I15" si="1">INDEX(Fibo_list,1,MATCH(H3,Fibo_list,1)+IF(H3&gt;INDEX(Fibo_list,MATCH(H3,Fibo_list,1)),1,0))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="29" thickBot="1">
+      <c r="J3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29" thickBot="1">
       <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -982,9 +998,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" ht="29" thickBot="1">
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29" thickBot="1">
       <c r="A5" s="18"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -1012,9 +1030,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="29" thickBot="1">
+      <c r="J5" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29" thickBot="1">
       <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
@@ -1044,9 +1064,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+      <c r="J6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -1076,9 +1098,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" thickBot="1">
       <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
@@ -1108,9 +1132,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>23</v>
@@ -1138,9 +1164,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="16" thickBot="1">
+      <c r="J9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" thickBot="1">
       <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>25</v>
@@ -1168,9 +1196,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1">
+      <c r="J10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" thickBot="1">
       <c r="A11" s="18"/>
       <c r="B11" s="10" t="s">
         <v>27</v>
@@ -1198,9 +1228,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="29" thickBot="1">
+      <c r="J11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29" thickBot="1">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -1230,9 +1262,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1">
+      <c r="J12" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16" thickBot="1">
       <c r="A13" s="12" t="s">
         <v>32</v>
       </c>
@@ -1262,9 +1296,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+      <c r="J13" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>35</v>
       </c>
@@ -1294,9 +1330,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" ht="29" thickBot="1">
+      <c r="J14" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>38</v>
       </c>
@@ -1326,7 +1364,23 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="I16">
+        <f>SUM(I3:I15)</f>
+        <v>51</v>
+      </c>
+      <c r="J16">
+        <f>SUM(J3:J15)</f>
+        <v>109</v>
+      </c>
+      <c r="K16" s="19">
+        <f>1-J16/I16</f>
+        <v>-1.1372549019607843</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1334,7 +1388,7 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A8:A11"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
